--- a/Excel Models/Insurance/377.xlsx
+++ b/Excel Models/Insurance/377.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServicesGrantThornton\Excel Models\Seguros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServices\Excel Models\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D352DA-DAEA-47D6-874D-C88C1E37103E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{23D352DA-DAEA-47D6-874D-C88C1E37103E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{66CADCBC-36C3-4973-A4C4-1946708AAAE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C55002D-8397-4821-B373-2DEECC385E40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C55002D-8397-4821-B373-2DEECC385E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Validação 377" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -643,9 +644,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -679,9 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,9 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,19 +709,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,22 +757,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1290,14 +1293,13 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="1.140625" customWidth="1"/>
-    <col min="13" max="17" width="11.5703125" customWidth="1"/>
+    <col min="13" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="1.140625" customWidth="1"/>
-    <col min="19" max="23" width="11.140625" customWidth="1"/>
+    <col min="19" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="1.140625" customWidth="1"/>
-    <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" customWidth="1"/>
+    <col min="25" max="29" width="11.7109375" customWidth="1"/>
     <col min="30" max="30" width="1.140625" customWidth="1"/>
-    <col min="31" max="35" width="12.5703125" customWidth="1"/>
+    <col min="31" max="35" width="11.7109375" customWidth="1"/>
     <col min="36" max="36" width="1.140625" customWidth="1"/>
     <col min="37" max="41" width="11.7109375" customWidth="1"/>
     <col min="42" max="42" width="1.140625" customWidth="1"/>
@@ -1374,95 +1376,95 @@
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="M12" s="34" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="M12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="S12" s="34" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="S12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="Y12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="36"/>
-      <c r="AE12" s="34" t="s">
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AE12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="36"/>
-      <c r="AK12" s="34" t="s">
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
+      <c r="AK12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="36"/>
-      <c r="AQ12" s="34" t="s">
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="40"/>
+      <c r="AQ12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="36"/>
-      <c r="AW12" s="34" t="s">
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="40"/>
+      <c r="AW12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="36"/>
-      <c r="BC12" s="34" t="s">
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="40"/>
+      <c r="BC12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="36"/>
-      <c r="BI12" s="34" t="s">
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="40"/>
+      <c r="BI12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="36"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
+      <c r="BL12" s="39"/>
+      <c r="BM12" s="40"/>
     </row>
     <row r="13" spans="2:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="31" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1631,11 +1633,11 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="15">
+      <c r="J14" s="32">
         <f>H14-I14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f>IF(ISERR(J14/H14),,(J14/H14))</f>
         <v>0</v>
       </c>
@@ -1644,11 +1646,11 @@
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="15">
+      <c r="P14" s="32">
         <f>N14-O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="15">
         <f>IF(ISERR(P14/N14),,(P14/N14))</f>
         <v>0</v>
       </c>
@@ -1657,11 +1659,11 @@
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="15">
+      <c r="V14" s="32">
         <f>T14-U14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="15">
         <f>IF(ISERR(V14/T14),,(V14/T14))</f>
         <v>0</v>
       </c>
@@ -1670,11 +1672,11 @@
       </c>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="15">
+      <c r="AB14" s="32">
         <f>Z14-AA14</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="15">
         <f>IF(ISERR(AB14/Z14),,(AB14/Z14))</f>
         <v>0</v>
       </c>
@@ -1683,11 +1685,11 @@
       </c>
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
-      <c r="AH14" s="15">
+      <c r="AH14" s="32">
         <f>AF14-AG14</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="16">
+      <c r="AI14" s="15">
         <f>IF(ISERR(AH14/AF14),,(AH14/AF14))</f>
         <v>0</v>
       </c>
@@ -1696,11 +1698,11 @@
       </c>
       <c r="AL14" s="14"/>
       <c r="AM14" s="14"/>
-      <c r="AN14" s="15">
+      <c r="AN14" s="32">
         <f>AL14-AM14</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="16">
+      <c r="AO14" s="15">
         <f>IF(ISERR(AN14/AL14),,(AN14/AL14))</f>
         <v>0</v>
       </c>
@@ -1709,11 +1711,11 @@
       </c>
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
-      <c r="AT14" s="15">
+      <c r="AT14" s="32">
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="16">
+      <c r="AU14" s="15">
         <f>IF(ISERR(AT14/AR14),,(AT14/AR14))</f>
         <v>0</v>
       </c>
@@ -1722,11 +1724,11 @@
       </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
-      <c r="AZ14" s="15">
+      <c r="AZ14" s="32">
         <f>AX14-AY14</f>
         <v>0</v>
       </c>
-      <c r="BA14" s="16">
+      <c r="BA14" s="15">
         <f>IF(ISERR(AZ14/AX14),,(AZ14/AX14))</f>
         <v>0</v>
       </c>
@@ -1735,11 +1737,11 @@
       </c>
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
-      <c r="BF14" s="15">
+      <c r="BF14" s="32">
         <f>BD14-BE14</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="16">
+      <c r="BG14" s="15">
         <f>IF(ISERR(BF14/BD14),,(BF14/BD14))</f>
         <v>0</v>
       </c>
@@ -1748,1694 +1750,1694 @@
       </c>
       <c r="BJ14" s="14"/>
       <c r="BK14" s="14"/>
-      <c r="BL14" s="15">
+      <c r="BL14" s="32">
         <f>BJ14-BK14</f>
         <v>0</v>
       </c>
-      <c r="BM14" s="16">
+      <c r="BM14" s="15">
         <f>IF(ISERR(BL14/BJ14),,(BL14/BJ14))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18">
         <f t="shared" ref="E15:E24" si="0">IF(ISERR(D15/C15),,(D15/C15))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>43497</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="33">
         <f t="shared" ref="J15:J25" si="1">H15-I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="21">
         <f t="shared" ref="K15:K26" si="2">IF(ISERR(J15/H15),,(J15/H15))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>43497</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22">
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="33">
         <f t="shared" ref="P15:P25" si="3">N15-O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="21">
         <f t="shared" ref="Q15:Q26" si="4">IF(ISERR(P15/N15),,(P15/N15))</f>
         <v>0</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="19">
         <v>43497</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22">
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="33">
         <f t="shared" ref="V15:V25" si="5">T15-U15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="21">
         <f t="shared" ref="W15:W26" si="6">IF(ISERR(V15/T15),,(V15/T15))</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="19">
         <v>43497</v>
       </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="22">
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="33">
         <f t="shared" ref="AB15:AB25" si="7">Z15-AA15</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="23">
+      <c r="AC15" s="21">
         <f t="shared" ref="AC15:AC26" si="8">IF(ISERR(AB15/Z15),,(AB15/Z15))</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AE15" s="19">
         <v>43497</v>
       </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="22">
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="33">
         <f t="shared" ref="AH15:AH25" si="9">AF15-AG15</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="23">
+      <c r="AI15" s="21">
         <f t="shared" ref="AI15:AI26" si="10">IF(ISERR(AH15/AF15),,(AH15/AF15))</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="20">
+      <c r="AK15" s="19">
         <v>43497</v>
       </c>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="22">
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="33">
         <f t="shared" ref="AN15:AN25" si="11">AL15-AM15</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="23">
+      <c r="AO15" s="21">
         <f t="shared" ref="AO15:AO26" si="12">IF(ISERR(AN15/AL15),,(AN15/AL15))</f>
         <v>0</v>
       </c>
-      <c r="AQ15" s="20">
+      <c r="AQ15" s="19">
         <v>43497</v>
       </c>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="22">
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="33">
         <f t="shared" ref="AT15:AT25" si="13">AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="23">
+      <c r="AU15" s="21">
         <f t="shared" ref="AU15:AU26" si="14">IF(ISERR(AT15/AR15),,(AT15/AR15))</f>
         <v>0</v>
       </c>
-      <c r="AW15" s="20">
+      <c r="AW15" s="19">
         <v>43497</v>
       </c>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="22">
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="33">
         <f t="shared" ref="AZ15:AZ25" si="15">AX15-AY15</f>
         <v>0</v>
       </c>
-      <c r="BA15" s="23">
+      <c r="BA15" s="21">
         <f t="shared" ref="BA15:BA26" si="16">IF(ISERR(AZ15/AX15),,(AZ15/AX15))</f>
         <v>0</v>
       </c>
-      <c r="BC15" s="20">
+      <c r="BC15" s="19">
         <v>43497</v>
       </c>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="22">
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="33">
         <f t="shared" ref="BF15:BF25" si="17">BD15-BE15</f>
         <v>0</v>
       </c>
-      <c r="BG15" s="23">
+      <c r="BG15" s="21">
         <f t="shared" ref="BG15:BG26" si="18">IF(ISERR(BF15/BD15),,(BF15/BD15))</f>
         <v>0</v>
       </c>
-      <c r="BI15" s="20">
+      <c r="BI15" s="19">
         <v>43497</v>
       </c>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="22">
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="33">
         <f t="shared" ref="BL15:BL25" si="19">BJ15-BK15</f>
         <v>0</v>
       </c>
-      <c r="BM15" s="23">
+      <c r="BM15" s="21">
         <f t="shared" ref="BM15:BM26" si="20">IF(ISERR(BL15/BJ15),,(BL15/BJ15))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>43525</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>43525</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="19">
         <v>43525</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22">
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Y16" s="19">
         <v>43525</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="22">
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AE16" s="19">
         <v>43525</v>
       </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="22">
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="23">
+      <c r="AI16" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="20">
+      <c r="AK16" s="19">
         <v>43525</v>
       </c>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="22">
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="23">
+      <c r="AO16" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="20">
+      <c r="AQ16" s="19">
         <v>43525</v>
       </c>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="22">
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU16" s="23">
+      <c r="AU16" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW16" s="20">
+      <c r="AW16" s="19">
         <v>43525</v>
       </c>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="22">
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA16" s="23">
+      <c r="BA16" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC16" s="20">
+      <c r="BC16" s="19">
         <v>43525</v>
       </c>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="22">
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG16" s="23">
+      <c r="BG16" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI16" s="20">
+      <c r="BI16" s="19">
         <v>43525</v>
       </c>
-      <c r="BJ16" s="21"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="22">
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM16" s="23">
+      <c r="BM16" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>43556</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <v>43556</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>43556</v>
       </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="19">
         <v>43556</v>
       </c>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22">
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AC17" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="20">
+      <c r="AE17" s="19">
         <v>43556</v>
       </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="22">
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="23">
+      <c r="AI17" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="20">
+      <c r="AK17" s="19">
         <v>43556</v>
       </c>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="22">
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="23">
+      <c r="AO17" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="20">
+      <c r="AQ17" s="19">
         <v>43556</v>
       </c>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="22">
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU17" s="23">
+      <c r="AU17" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="20">
+      <c r="AW17" s="19">
         <v>43556</v>
       </c>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="22">
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA17" s="23">
+      <c r="BA17" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC17" s="20">
+      <c r="BC17" s="19">
         <v>43556</v>
       </c>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="22">
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG17" s="23">
+      <c r="BG17" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI17" s="20">
+      <c r="BI17" s="19">
         <v>43556</v>
       </c>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="22">
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM17" s="23">
+      <c r="BM17" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>43586</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <v>43586</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <v>43586</v>
       </c>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="19">
         <v>43586</v>
       </c>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="22">
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="23">
+      <c r="AC18" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AE18" s="19">
         <v>43586</v>
       </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="22">
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="23">
+      <c r="AI18" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="20">
+      <c r="AK18" s="19">
         <v>43586</v>
       </c>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="22">
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="23">
+      <c r="AO18" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="20">
+      <c r="AQ18" s="19">
         <v>43586</v>
       </c>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="22">
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU18" s="23">
+      <c r="AU18" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="20">
+      <c r="AW18" s="19">
         <v>43586</v>
       </c>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="22">
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA18" s="23">
+      <c r="BA18" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC18" s="20">
+      <c r="BC18" s="19">
         <v>43586</v>
       </c>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="22">
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG18" s="23">
+      <c r="BG18" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI18" s="20">
+      <c r="BI18" s="19">
         <v>43586</v>
       </c>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="22">
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM18" s="23">
+      <c r="BM18" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>43617</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>43617</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22">
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <v>43617</v>
       </c>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22">
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="19">
         <v>43617</v>
       </c>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="22">
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="23">
+      <c r="AC19" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="19">
         <v>43617</v>
       </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="22">
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="23">
+      <c r="AI19" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="20">
+      <c r="AK19" s="19">
         <v>43617</v>
       </c>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="22">
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="23">
+      <c r="AO19" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="20">
+      <c r="AQ19" s="19">
         <v>43617</v>
       </c>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="22">
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="23">
+      <c r="AU19" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="20">
+      <c r="AW19" s="19">
         <v>43617</v>
       </c>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="22">
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA19" s="23">
+      <c r="BA19" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC19" s="20">
+      <c r="BC19" s="19">
         <v>43617</v>
       </c>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="22">
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG19" s="23">
+      <c r="BG19" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI19" s="20">
+      <c r="BI19" s="19">
         <v>43617</v>
       </c>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="22">
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM19" s="23">
+      <c r="BM19" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>43647</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>43647</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22">
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <v>43647</v>
       </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22">
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="19">
         <v>43647</v>
       </c>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="22">
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="23">
+      <c r="AC20" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AE20" s="19">
         <v>43647</v>
       </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="22">
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="23">
+      <c r="AI20" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="20">
+      <c r="AK20" s="19">
         <v>43647</v>
       </c>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="22">
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="23">
+      <c r="AO20" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="20">
+      <c r="AQ20" s="19">
         <v>43647</v>
       </c>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="22">
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="23">
+      <c r="AU20" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="20">
+      <c r="AW20" s="19">
         <v>43647</v>
       </c>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="22">
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA20" s="23">
+      <c r="BA20" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC20" s="20">
+      <c r="BC20" s="19">
         <v>43647</v>
       </c>
-      <c r="BD20" s="21"/>
-      <c r="BE20" s="21"/>
-      <c r="BF20" s="22">
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG20" s="23">
+      <c r="BG20" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI20" s="20">
+      <c r="BI20" s="19">
         <v>43647</v>
       </c>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="21"/>
-      <c r="BL20" s="22">
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM20" s="23">
+      <c r="BM20" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>43678</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="19">
         <v>43678</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22">
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <v>43678</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="19">
         <v>43678</v>
       </c>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="22">
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AC21" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="20">
+      <c r="AE21" s="19">
         <v>43678</v>
       </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="22">
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="23">
+      <c r="AI21" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="20">
+      <c r="AK21" s="19">
         <v>43678</v>
       </c>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="22">
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="23">
+      <c r="AO21" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="20">
+      <c r="AQ21" s="19">
         <v>43678</v>
       </c>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="22">
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU21" s="23">
+      <c r="AU21" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW21" s="20">
+      <c r="AW21" s="19">
         <v>43678</v>
       </c>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="22">
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA21" s="23">
+      <c r="BA21" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC21" s="20">
+      <c r="BC21" s="19">
         <v>43678</v>
       </c>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="22">
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG21" s="23">
+      <c r="BG21" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI21" s="20">
+      <c r="BI21" s="19">
         <v>43678</v>
       </c>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="22">
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM21" s="23">
+      <c r="BM21" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>43709</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <v>43709</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22">
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <v>43709</v>
       </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="19">
         <v>43709</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="22">
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="23">
+      <c r="AC22" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="20">
+      <c r="AE22" s="19">
         <v>43709</v>
       </c>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="22">
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="23">
+      <c r="AI22" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="20">
+      <c r="AK22" s="19">
         <v>43709</v>
       </c>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="22">
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="23">
+      <c r="AO22" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ22" s="20">
+      <c r="AQ22" s="19">
         <v>43709</v>
       </c>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="22">
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="23">
+      <c r="AU22" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW22" s="20">
+      <c r="AW22" s="19">
         <v>43709</v>
       </c>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="22">
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA22" s="23">
+      <c r="BA22" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC22" s="20">
+      <c r="BC22" s="19">
         <v>43709</v>
       </c>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="22">
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG22" s="23">
+      <c r="BG22" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI22" s="20">
+      <c r="BI22" s="19">
         <v>43709</v>
       </c>
-      <c r="BJ22" s="21"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="22">
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM22" s="23">
+      <c r="BM22" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>43739</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <v>43739</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22">
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="19">
         <v>43739</v>
       </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="19">
         <v>43739</v>
       </c>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="22">
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="23">
+      <c r="AC23" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="20">
+      <c r="AE23" s="19">
         <v>43739</v>
       </c>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="22">
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="23">
+      <c r="AI23" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="20">
+      <c r="AK23" s="19">
         <v>43739</v>
       </c>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="22">
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="23">
+      <c r="AO23" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="20">
+      <c r="AQ23" s="19">
         <v>43739</v>
       </c>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="22">
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU23" s="23">
+      <c r="AU23" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW23" s="20">
+      <c r="AW23" s="19">
         <v>43739</v>
       </c>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="22">
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA23" s="23">
+      <c r="BA23" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC23" s="20">
+      <c r="BC23" s="19">
         <v>43739</v>
       </c>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="22">
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG23" s="23">
+      <c r="BG23" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI23" s="20">
+      <c r="BI23" s="19">
         <v>43739</v>
       </c>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="22">
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM23" s="23">
+      <c r="BM23" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>43770</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <v>43770</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22">
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="19">
         <v>43770</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22">
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="19">
         <v>43770</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="22">
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="23">
+      <c r="AC24" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="20">
+      <c r="AE24" s="19">
         <v>43770</v>
       </c>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="22">
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="23">
+      <c r="AI24" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="20">
+      <c r="AK24" s="19">
         <v>43770</v>
       </c>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="22">
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="23">
+      <c r="AO24" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ24" s="20">
+      <c r="AQ24" s="19">
         <v>43770</v>
       </c>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="22">
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU24" s="23">
+      <c r="AU24" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW24" s="20">
+      <c r="AW24" s="19">
         <v>43770</v>
       </c>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="22">
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="33">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA24" s="23">
+      <c r="BA24" s="21">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC24" s="20">
+      <c r="BC24" s="19">
         <v>43770</v>
       </c>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="22">
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG24" s="23">
+      <c r="BG24" s="21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI24" s="20">
+      <c r="BI24" s="19">
         <v>43770</v>
       </c>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="22">
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="33">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM24" s="23">
+      <c r="BM24" s="21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="24">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="22">
         <f>SUM(E14:E24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="23">
         <v>43800</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="23">
         <v>43800</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27">
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="23">
         <v>43800</v>
       </c>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="27">
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W25" s="28">
+      <c r="W25" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Y25" s="23">
         <v>43800</v>
       </c>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="27">
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="28">
+      <c r="AC25" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AE25" s="23">
         <v>43800</v>
       </c>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27">
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="28">
+      <c r="AI25" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AK25" s="23">
         <v>43800</v>
       </c>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="27">
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="28">
+      <c r="AO25" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="25">
+      <c r="AQ25" s="23">
         <v>43800</v>
       </c>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="27">
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AU25" s="28">
+      <c r="AU25" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW25" s="25">
+      <c r="AW25" s="23">
         <v>43800</v>
       </c>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="27">
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="34">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA25" s="28">
+      <c r="BA25" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC25" s="25">
+      <c r="BC25" s="23">
         <v>43800</v>
       </c>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="27">
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG25" s="28">
+      <c r="BG25" s="25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI25" s="25">
+      <c r="BI25" s="23">
         <v>43800</v>
       </c>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
-      <c r="BL25" s="27">
+      <c r="BJ25" s="24"/>
+      <c r="BK25" s="24"/>
+      <c r="BL25" s="34">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BM25" s="28">
+      <c r="BM25" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="29">
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="35">
         <f>SUM(J14:J25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="29">
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="35">
         <f>SUM(P14:P25)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="S26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="29">
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="35">
         <f>SUM(V14:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="32" t="s">
+      <c r="Y26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="29">
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="35">
         <f>SUM(AB14:AB25)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="30">
+      <c r="AC26" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="32" t="s">
+      <c r="AE26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="29">
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="35">
         <f>SUM(AH14:AH25)</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="30">
+      <c r="AI26" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="32" t="s">
+      <c r="AK26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="29">
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="35">
         <f>SUM(AN14:AN25)</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="30">
+      <c r="AO26" s="26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="32" t="s">
+      <c r="AQ26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="29">
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="35">
         <f>SUM(AT14:AT25)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="30">
+      <c r="AU26" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW26" s="32" t="s">
+      <c r="AW26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="29">
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="35">
         <f>SUM(AZ14:AZ25)</f>
         <v>0</v>
       </c>
-      <c r="BA26" s="30">
+      <c r="BA26" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BC26" s="32" t="s">
+      <c r="BC26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="BD26" s="33"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="29">
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="35">
         <f>SUM(BF14:BF25)</f>
         <v>0</v>
       </c>
-      <c r="BG26" s="30">
+      <c r="BG26" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI26" s="32" t="s">
+      <c r="BI26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="BJ26" s="33"/>
-      <c r="BK26" s="33"/>
-      <c r="BL26" s="29">
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="35">
         <f>SUM(BL14:BL25)</f>
         <v>0</v>
       </c>
-      <c r="BM26" s="30">
+      <c r="BM26" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3443,7 +3445,7 @@
     <row r="27" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
-      <c r="F28" s="31"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
